--- a/academycity/data/avic/datasets/excel/conference/output/GDP/2014_Primary_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/GDP/2014_Primary_o.xlsx
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -10678,7 +10678,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C138" t="n">
